--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3172.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3172.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.235503200241085</v>
+        <v>1.027979016304016</v>
       </c>
       <c r="B1">
-        <v>1.447405436082432</v>
+        <v>2.297914505004883</v>
       </c>
       <c r="C1">
-        <v>1.86161561472231</v>
+        <v>4.657309532165527</v>
       </c>
       <c r="D1">
-        <v>4.135035288413915</v>
+        <v>1.367353916168213</v>
       </c>
       <c r="E1">
-        <v>7.166603549691438</v>
+        <v>1.269149780273438</v>
       </c>
     </row>
   </sheetData>
